--- a/NCE/네이버클라우드/00.요약본/NCE.xlsx
+++ b/NCE/네이버클라우드/00.요약본/NCE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20.naver\00.시험대비\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\NCE\네이버클라우드\00.요약본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54768129-32AD-4E07-BB98-88EF4B1D6D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CF8A39-2F09-4681-9B5A-3DDC0010D2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="4" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
+    <workbookView xWindow="42450" yWindow="-780" windowWidth="23115" windowHeight="17550" activeTab="1" xr2:uid="{F59860EA-48BE-4768-90E0-72E89FFE37D2}"/>
   </bookViews>
   <sheets>
     <sheet name="OverView" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="303 DB-Management-분석-보안" sheetId="4" r:id="rId4"/>
     <sheet name="305 Application-AI-architech" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="575">
   <si>
     <t>클라우드 컴퓨팅 유형</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3308,10 +3308,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>agent 설치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">선택한 서버와 동일한 스펙의 서버 생성시 사용
 </t>
@@ -3358,101 +3354,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VPC환경은 한국, 싱가폴 리전만 제공
-멀티존 가능 리전 : 한국, 일본, 싱가폴
-멀티존 구성가능 상품 : CDB, LB
-리전종속적 : Object Storage, Arichive Storage
-존 종속적 : Server, NAS, Block Storage, Subnet
-전세계 : sub Account,Init Script, GRM, Safer와 Checker
-하이브리드클라우드호스팅 : 회사DB + 클라우드
-서버정지시 표준요금이 적용되는 서버 : GPU, Bare Metal 서버
-계정당 50개의 server를 가질수 있음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>최대 1,000개의 버킷 생성 가능(고객센터로 문의 시 한도 증가 가능)
 console : 2G API : 10T 업로드가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* 생성 (전체 파라메터 암기할것)
-./ncloud </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vnas createNasVolumeInstance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> --regionCod
-e KR --zoneCode KR-2 --volumeName data --</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>volumeAllotmentProtocolTypeCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NFS --</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>volumeSize</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 500 --isReturnProtection false
-./ncloud vnas getNasVolumeInstanceList ~~~
-./ncloud vnas addNasVolumeAccessControl ~~~ (NAS ACL생성)</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5043,12 +4946,174 @@
 Security</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>RAID 0 : 모든 디스크 공간 사용
+RAID 1 : 단순 볼륨보다 읽기 속도 빠름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swift API, AWS S3 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 파일 최대 크기 10TB
+수명 주기 정책에 따라 Archive Stroage로 이관하는 것도 가능
+AWS S3 API 호환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC 플랫폼 서버 생성과정
+VPC생성 -&gt; Subnet 생성 -&gt; NACL 생성 -&gt; 서버 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VPC환경은 한국, 싱가폴 리전만 제공
+멀티존 가능 리전 : 한국, 일본, 싱가폴
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>멀티존 구성가능 상품 : CDB, LB
+리전종속적 : Object Storage, Arichive Storage
+존 종속적 : Server, NAS, Block Storage, Subnet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+전세계 : sub Account,Init Script, GRM, Safer와 Checker
+하이브리드클라우드호스팅 : 회사DB + 클라우드
+서버정지시 표준요금이 적용되는 서버 : GPU, Bare Metal 서버
+계정당 50개의 server를 가질수 있음</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">agent 설치
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>보관기간은 백업주기의 최소 2배이상 설정 필요</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* 생성 (전체 파라메터 암기할것)
+./ncloud </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vnas createNasVolumeInstance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --regionCod
+e KR --zoneCode KR-2 --volumeName data --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>volumeAllotmentProtocolTypeCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NFS --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>volumeSize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 500 --isReturnProtection false
+-&gt; 빨간색은 필수값
+./ncloud vnas getNasVolumeInstanceList ~~~
+./ncloud vnas addNasVolumeAccessControl ~~~ (NAS ACL생성)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mount -t nfs (리눅스)      윈도우 - cifs
+os에 따라 필요한 패키지 설치해야함
+스냅샷을 이용해 NAS 볼륨 복구 시, 복구에 사용된 스냅샷의 생성 시점 이후에 생성된 스냅샷 모두 삭제된다.
+데이터 변경이 빈번하고 그 양이 많아 스냅샷 적용 비율(%)을 초과하는 경우, 오래된 스냅샷부터 삭제하여 스냅샷 공간을 확보합니다.
+이에 최근 스냅샷 생성 이후 데이터의 변동이 지속적으로 발생하여 설정된 최대 스냅샷 용량를 초과하는 경우, 이전에 생성된 모든 스냅샷이 삭제될 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5121,8 +5186,17 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5132,6 +5206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5228,7 +5308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5325,6 +5405,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5355,9 +5444,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5386,9 +5472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5276850</xdr:colOff>
+      <xdr:colOff>5273040</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>1838325</xdr:rowOff>
+      <xdr:rowOff>1840230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6232,11 +6318,11 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="111.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="111.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6255,7 +6341,7 @@
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -6266,7 +6352,7 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="32"/>
+      <c r="B4" s="35"/>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -6275,7 +6361,7 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -6283,8 +6369,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="33">
-      <c r="B6" s="32"/>
+    <row r="6" spans="2:5" ht="34.799999999999997">
+      <c r="B6" s="35"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6293,7 +6379,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -6336,16 +6422,16 @@
   </sheetPr>
   <dimension ref="B2:E83"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A44" sqref="A43:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.75" customWidth="1"/>
+    <col min="5" max="5" width="71.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -6362,8 +6448,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="181.5">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:5" ht="191.4">
+      <c r="B3" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -6373,11 +6459,11 @@
         <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>453</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="35"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
@@ -6387,7 +6473,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="35"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
@@ -6396,8 +6482,8 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="49.5">
-      <c r="B6" s="35"/>
+    <row r="6" spans="2:5" ht="52.2">
+      <c r="B6" s="38"/>
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
@@ -6406,8 +6492,8 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="2:5" ht="82.5">
-      <c r="B7" s="35"/>
+    <row r="7" spans="2:5" ht="87">
+      <c r="B7" s="38"/>
       <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
@@ -6418,20 +6504,20 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="66">
-      <c r="B8" s="35"/>
+    <row r="8" spans="2:5" ht="52.2">
+      <c r="B8" s="38"/>
       <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="33">
-      <c r="B9" s="36"/>
+    <row r="9" spans="2:5" ht="34.799999999999997">
+      <c r="B9" s="39"/>
       <c r="C9" s="6" t="s">
         <v>127</v>
       </c>
@@ -6441,7 +6527,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -6455,7 +6541,7 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="33"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
@@ -6467,7 +6553,7 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="33"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
@@ -6479,7 +6565,7 @@
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="33"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
@@ -6487,7 +6573,7 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="33"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -6497,7 +6583,7 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="33"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
@@ -6507,7 +6593,7 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5" ht="33" customHeight="1">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="40" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -6519,7 +6605,7 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="37"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="6" t="s">
         <v>47</v>
       </c>
@@ -6529,7 +6615,7 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="37"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="6" t="s">
         <v>48</v>
       </c>
@@ -6551,7 +6637,7 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -6561,11 +6647,11 @@
         <v>56</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="33"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="6" t="s">
         <v>57</v>
       </c>
@@ -6574,18 +6660,18 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:5" ht="49.5">
-      <c r="B22" s="33"/>
+    <row r="22" spans="2:5" ht="52.2">
+      <c r="B22" s="36"/>
       <c r="C22" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5" ht="33">
-      <c r="B23" s="33"/>
+    <row r="23" spans="2:5" ht="34.799999999999997">
+      <c r="B23" s="36"/>
       <c r="C23" s="6" t="s">
         <v>60</v>
       </c>
@@ -6595,7 +6681,7 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="6" t="s">
         <v>53</v>
       </c>
@@ -6605,7 +6691,7 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="33"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="6" t="s">
         <v>62</v>
       </c>
@@ -6614,8 +6700,8 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:5" ht="66">
-      <c r="B26" s="33" t="s">
+    <row r="26" spans="2:5" ht="69.599999999999994">
+      <c r="B26" s="36" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -6629,7 +6715,7 @@
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="33"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="6" t="s">
         <v>67</v>
       </c>
@@ -6637,11 +6723,11 @@
         <v>68</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="49.5">
-      <c r="B28" s="33" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="52.2">
+      <c r="B28" s="36" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -6652,8 +6738,8 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="2:5" ht="49.5">
-      <c r="B29" s="33"/>
+    <row r="29" spans="2:5" ht="52.2">
+      <c r="B29" s="36"/>
       <c r="C29" s="6" t="s">
         <v>72</v>
       </c>
@@ -6663,7 +6749,7 @@
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="33"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="6" t="s">
         <v>75</v>
       </c>
@@ -6673,7 +6759,7 @@
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -6682,8 +6768,8 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="2:5" ht="49.5">
-      <c r="B32" s="33"/>
+    <row r="32" spans="2:5" ht="52.2">
+      <c r="B32" s="36"/>
       <c r="C32" s="6" t="s">
         <v>79</v>
       </c>
@@ -6693,7 +6779,7 @@
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="33"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="6" t="s">
         <v>80</v>
       </c>
@@ -6702,8 +6788,8 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="2:5" ht="82.5">
-      <c r="B34" s="37" t="s">
+    <row r="34" spans="2:5" ht="87">
+      <c r="B34" s="40" t="s">
         <v>82</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -6715,7 +6801,7 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="37"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="6" t="s">
         <v>84</v>
       </c>
@@ -6724,7 +6810,7 @@
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="2:5" ht="82.5">
+    <row r="36" spans="2:5" ht="87">
       <c r="B36" s="5" t="s">
         <v>88</v>
       </c>
@@ -6736,7 +6822,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="49.5">
+    <row r="37" spans="2:5" ht="52.2">
       <c r="B37" s="5" t="s">
         <v>90</v>
       </c>
@@ -6746,18 +6832,20 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="2:5" ht="33">
-      <c r="B38" s="33" t="s">
+    <row r="38" spans="2:5" ht="34.799999999999997">
+      <c r="B38" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="7" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="33"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="6" t="s">
         <v>95</v>
       </c>
@@ -6767,7 +6855,7 @@
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="33"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="6" t="s">
         <v>94</v>
       </c>
@@ -6776,8 +6864,8 @@
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="2:5" ht="33">
-      <c r="B41" s="33"/>
+    <row r="41" spans="2:5" ht="34.799999999999997">
+      <c r="B41" s="36"/>
       <c r="C41" s="6" t="s">
         <v>97</v>
       </c>
@@ -6788,8 +6876,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="66">
-      <c r="B42" s="33"/>
+    <row r="42" spans="2:5" ht="69.599999999999994">
+      <c r="B42" s="36"/>
       <c r="C42" s="6" t="s">
         <v>99</v>
       </c>
@@ -6810,7 +6898,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="2:5" ht="82.5">
+    <row r="44" spans="2:5" ht="87">
       <c r="B44" s="5" t="s">
         <v>105</v>
       </c>
@@ -6821,53 +6909,53 @@
         <v>107</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="34" t="s">
         <v>114</v>
       </c>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="33"/>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="34" t="s">
         <v>110</v>
       </c>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="33"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="34" t="s">
         <v>112</v>
       </c>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="33"/>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="34" t="s">
         <v>115</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="33"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="6" t="s">
         <v>117</v>
       </c>
@@ -6877,7 +6965,7 @@
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="33"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="6" t="s">
         <v>120</v>
       </c>
@@ -6887,7 +6975,7 @@
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="33"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="6" t="s">
         <v>122</v>
       </c>
@@ -6897,7 +6985,7 @@
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="33"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="6" t="s">
         <v>124</v>
       </c>
@@ -6906,8 +6994,8 @@
       </c>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="2:5" ht="33">
-      <c r="B53" s="33"/>
+    <row r="53" spans="2:5" ht="34.799999999999997">
+      <c r="B53" s="36"/>
       <c r="C53" s="6" t="s">
         <v>125</v>
       </c>
@@ -6915,10 +7003,10 @@
         <v>126</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="49.5">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="52.2">
       <c r="B54" s="5" t="s">
         <v>131</v>
       </c>
@@ -6932,7 +7020,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="49.5">
+    <row r="55" spans="2:5" ht="52.2">
       <c r="B55" s="5" t="s">
         <v>135</v>
       </c>
@@ -6959,7 +7047,7 @@
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="36" t="s">
         <v>141</v>
       </c>
       <c r="C57" s="6"/>
@@ -6968,8 +7056,8 @@
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="2:5" ht="49.5">
-      <c r="B58" s="33"/>
+    <row r="58" spans="2:5" ht="52.2">
+      <c r="B58" s="36"/>
       <c r="C58" s="6" t="s">
         <v>143</v>
       </c>
@@ -6979,7 +7067,7 @@
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="2:5" ht="49.5" customHeight="1">
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="40" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -6989,11 +7077,11 @@
         <v>146</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="132">
-      <c r="B60" s="37"/>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="139.19999999999999">
+      <c r="B60" s="40"/>
       <c r="C60" s="6" t="s">
         <v>148</v>
       </c>
@@ -7002,8 +7090,8 @@
       </c>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="2:5" ht="33">
-      <c r="B61" s="37"/>
+    <row r="61" spans="2:5" ht="34.799999999999997">
+      <c r="B61" s="40"/>
       <c r="C61" s="6" t="s">
         <v>149</v>
       </c>
@@ -7014,8 +7102,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="115.5">
-      <c r="B62" s="37"/>
+    <row r="62" spans="2:5" ht="121.8">
+      <c r="B62" s="40"/>
       <c r="C62" s="6" t="s">
         <v>151</v>
       </c>
@@ -7024,8 +7112,8 @@
       </c>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="2:5" ht="49.5">
-      <c r="B63" s="37"/>
+    <row r="63" spans="2:5" ht="52.2">
+      <c r="B63" s="40"/>
       <c r="C63" s="6" t="s">
         <v>153</v>
       </c>
@@ -7036,8 +7124,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="33">
-      <c r="B64" s="37"/>
+    <row r="64" spans="2:5" ht="34.799999999999997">
+      <c r="B64" s="40"/>
       <c r="C64" s="6" t="s">
         <v>155</v>
       </c>
@@ -7046,8 +7134,8 @@
       </c>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="2:5" ht="33">
-      <c r="B65" s="37"/>
+    <row r="65" spans="2:5" ht="34.799999999999997">
+      <c r="B65" s="40"/>
       <c r="C65" s="6" t="s">
         <v>159</v>
       </c>
@@ -7055,11 +7143,11 @@
         <v>446</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="198">
-      <c r="B66" s="37"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="208.8">
+      <c r="B66" s="40"/>
       <c r="C66" s="6" t="s">
         <v>158</v>
       </c>
@@ -7071,7 +7159,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="149.25" customHeight="1">
-      <c r="B67" s="37"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="6" t="s">
         <v>156</v>
       </c>
@@ -7080,8 +7168,8 @@
       </c>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="2:5" ht="99">
-      <c r="B68" s="37"/>
+    <row r="68" spans="2:5" ht="104.4">
+      <c r="B68" s="40"/>
       <c r="C68" s="6" t="s">
         <v>162</v>
       </c>
@@ -7092,7 +7180,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="66">
+    <row r="69" spans="2:5" ht="69.599999999999994">
       <c r="B69" s="5" t="s">
         <v>166</v>
       </c>
@@ -7102,7 +7190,7 @@
       </c>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="2:5" ht="214.5">
+    <row r="70" spans="2:5" ht="226.2">
       <c r="B70" s="5" t="s">
         <v>168</v>
       </c>
@@ -7117,7 +7205,7 @@
       </c>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="36" t="s">
         <v>172</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -7128,18 +7216,20 @@
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="2:5" ht="115.5">
-      <c r="B75" s="33"/>
+    <row r="75" spans="2:5" ht="121.8">
+      <c r="B75" s="36"/>
       <c r="C75" s="6" t="s">
         <v>175</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="2:5" ht="82.5">
-      <c r="B76" s="33"/>
+      <c r="E75" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="87">
+      <c r="B76" s="36"/>
       <c r="C76" s="5" t="s">
         <v>177</v>
       </c>
@@ -7148,8 +7238,8 @@
       </c>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="2:5" ht="66">
-      <c r="B77" s="33"/>
+    <row r="77" spans="2:5" ht="69.599999999999994">
+      <c r="B77" s="36"/>
       <c r="C77" s="6" t="s">
         <v>178</v>
       </c>
@@ -7158,52 +7248,56 @@
       </c>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="2:5" ht="33">
-      <c r="B78" s="33"/>
+    <row r="78" spans="2:5" ht="52.2">
+      <c r="B78" s="36"/>
       <c r="C78" s="6" t="s">
         <v>179</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="2:5" ht="115.5">
-      <c r="B79" s="33"/>
+        <v>452</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="156.6" customHeight="1">
+      <c r="B79" s="36"/>
       <c r="C79" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>454</v>
+        <v>574</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="99">
-      <c r="B80" s="33"/>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="104.4">
+      <c r="B80" s="36"/>
       <c r="C80" s="6" t="s">
         <v>183</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>447</v>
+      <c r="E80" s="7" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="33"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="6" t="s">
         <v>184</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="2:5" ht="165">
-      <c r="B82" s="33"/>
+      <c r="E81" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="174">
+      <c r="B82" s="36"/>
       <c r="C82" s="6" t="s">
         <v>187</v>
       </c>
@@ -7214,8 +7308,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="132">
-      <c r="B83" s="33"/>
+    <row r="83" spans="2:5" ht="139.19999999999999">
+      <c r="B83" s="36"/>
       <c r="C83" s="6" t="s">
         <v>188</v>
       </c>
@@ -7258,12 +7352,12 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" customWidth="1"/>
     <col min="4" max="4" width="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.75" customWidth="1"/>
+    <col min="5" max="5" width="71.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -7280,7 +7374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="231">
+    <row r="3" spans="2:5" ht="243.6">
       <c r="B3" s="17" t="s">
         <v>173</v>
       </c>
@@ -7289,7 +7383,7 @@
         <v>191</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="228" customHeight="1">
@@ -7299,10 +7393,10 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="66">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="69.599999999999994">
       <c r="B5" s="6" t="s">
         <v>193</v>
       </c>
@@ -7310,13 +7404,13 @@
         <v>193</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="49.5">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="52.2">
       <c r="B6" s="18"/>
       <c r="C6" s="7" t="s">
         <v>197</v>
@@ -7328,7 +7422,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="49.5">
+    <row r="7" spans="2:5" ht="52.2">
       <c r="B7" s="18"/>
       <c r="C7" s="6" t="s">
         <v>195</v>
@@ -7348,17 +7442,17 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5" ht="330">
+    <row r="9" spans="2:5" ht="348">
       <c r="B9" s="19"/>
       <c r="C9" s="6" t="s">
         <v>201</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5" ht="49.5">
+    <row r="10" spans="2:5" ht="52.2">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>202</v>
@@ -7374,46 +7468,46 @@
         <v>204</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="264">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="278.39999999999998">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>205</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="214.5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="226.2">
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
         <v>205</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="99">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="104.4">
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="288" customHeight="1">
@@ -7424,28 +7518,28 @@
       <c r="D15" s="21"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:5" ht="66">
+    <row r="16" spans="2:5" ht="69.599999999999994">
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
         <v>208</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="181.5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="191.4">
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
         <v>209</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="33" customHeight="1">
@@ -7458,7 +7552,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="2:5" ht="66">
+    <row r="19" spans="2:5" ht="69.599999999999994">
       <c r="B19" s="7"/>
       <c r="C19" s="6" t="s">
         <v>212</v>
@@ -7467,22 +7561,22 @@
         <v>214</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="66">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="69.599999999999994">
       <c r="B20" s="7"/>
       <c r="C20" s="6" t="s">
         <v>213</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="49.5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="52.2">
       <c r="B21" s="7"/>
       <c r="C21" s="6" t="s">
         <v>206</v>
@@ -7492,16 +7586,16 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:5" ht="99">
+    <row r="22" spans="2:5" ht="104.4">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>207</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -7514,28 +7608,28 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:5" ht="33">
+    <row r="24" spans="2:5" ht="34.799999999999997">
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="132">
+    </row>
+    <row r="25" spans="2:5" ht="139.19999999999999">
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -7551,46 +7645,46 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="115.5">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="121.8">
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
         <v>220</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="148.5">
+    </row>
+    <row r="30" spans="2:5" ht="156.6">
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="82.5">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="87">
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
         <v>222</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="66">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="69.599999999999994">
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
         <v>223</v>
@@ -7600,7 +7694,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:5" ht="33">
+    <row r="33" spans="2:5" ht="34.799999999999997">
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
         <v>225</v>
@@ -7626,11 +7720,11 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="68.875" customWidth="1"/>
+    <col min="4" max="4" width="68.8984375" customWidth="1"/>
     <col min="5" max="5" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7648,20 +7742,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="49.5">
-      <c r="B3" s="33"/>
+    <row r="3" spans="2:5" ht="52.2">
+      <c r="B3" s="36"/>
       <c r="C3" s="6" t="s">
         <v>227</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="99">
-      <c r="B4" s="33"/>
+    <row r="4" spans="2:5" ht="104.4">
+      <c r="B4" s="36"/>
       <c r="C4" s="6" t="s">
         <v>228</v>
       </c>
@@ -7675,10 +7769,10 @@
     <row r="5" spans="2:5" ht="202.5" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" spans="2:5" ht="231">
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="2:5" ht="243.6">
       <c r="B6" s="5" t="s">
         <v>231</v>
       </c>
@@ -7686,14 +7780,14 @@
         <v>232</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="115.5">
-      <c r="B7" s="33" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="121.8">
+      <c r="B7" s="36" t="s">
         <v>236</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -7706,20 +7800,20 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="82.5">
-      <c r="B8" s="33"/>
+    <row r="8" spans="2:5" ht="87">
+      <c r="B8" s="36"/>
       <c r="C8" s="6" t="s">
         <v>235</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="33">
-      <c r="B9" s="33"/>
+    <row r="9" spans="2:5" ht="34.799999999999997">
+      <c r="B9" s="36"/>
       <c r="C9" s="6" t="s">
         <v>237</v>
       </c>
@@ -7728,8 +7822,8 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5" ht="49.5">
-      <c r="B10" s="33"/>
+    <row r="10" spans="2:5" ht="52.2">
+      <c r="B10" s="36"/>
       <c r="C10" s="6" t="s">
         <v>239</v>
       </c>
@@ -7738,8 +7832,8 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5" ht="66">
-      <c r="B11" s="33"/>
+    <row r="11" spans="2:5" ht="69.599999999999994">
+      <c r="B11" s="36"/>
       <c r="C11" s="6" t="s">
         <v>241</v>
       </c>
@@ -7750,8 +7844,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="99">
-      <c r="B12" s="33"/>
+    <row r="12" spans="2:5" ht="104.4">
+      <c r="B12" s="36"/>
       <c r="C12" s="6" t="s">
         <v>246</v>
       </c>
@@ -7760,8 +7854,8 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5" ht="66">
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="2:5" ht="69.599999999999994">
+      <c r="B13" s="36" t="s">
         <v>248</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -7771,23 +7865,23 @@
         <v>253</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="33"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="6" t="s">
         <v>250</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="33"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="6" t="s">
         <v>251</v>
       </c>
@@ -7796,8 +7890,8 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:5" ht="33">
-      <c r="B16" s="33"/>
+    <row r="16" spans="2:5" ht="34.799999999999997">
+      <c r="B16" s="36"/>
       <c r="C16" s="6" t="s">
         <v>254</v>
       </c>
@@ -7807,7 +7901,7 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="33"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="6" t="s">
         <v>256</v>
       </c>
@@ -7817,7 +7911,7 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="33"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="6" t="s">
         <v>258</v>
       </c>
@@ -7827,7 +7921,7 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="33"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="6" t="s">
         <v>260</v>
       </c>
@@ -7836,8 +7930,8 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:5" ht="33">
-      <c r="B20" s="33"/>
+    <row r="20" spans="2:5" ht="34.799999999999997">
+      <c r="B20" s="36"/>
       <c r="C20" s="6" t="s">
         <v>264</v>
       </c>
@@ -7846,7 +7940,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:5" ht="132">
+    <row r="21" spans="2:5" ht="139.19999999999999">
       <c r="B21" s="5" t="s">
         <v>265</v>
       </c>
@@ -7854,26 +7948,26 @@
         <v>266</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="66">
-      <c r="B22" s="33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="69.599999999999994">
+      <c r="B22" s="36" t="s">
         <v>267</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>268</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5" ht="66">
-      <c r="B23" s="33"/>
+    <row r="23" spans="2:5" ht="69.599999999999994">
+      <c r="B23" s="36"/>
       <c r="C23" s="6" t="s">
         <v>269</v>
       </c>
@@ -7885,7 +7979,7 @@
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="6" t="s">
         <v>241</v>
       </c>
@@ -7894,17 +7988,17 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5" ht="49.5">
+    <row r="25" spans="2:5" ht="52.2">
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:5" ht="82.5">
+    <row r="26" spans="2:5" ht="87">
       <c r="B26" s="5" t="s">
         <v>273</v>
       </c>
@@ -7912,14 +8006,14 @@
         <v>266</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="36" t="s">
         <v>267</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -7929,7 +8023,7 @@
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="33"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="6" t="s">
         <v>276</v>
       </c>
@@ -7939,7 +8033,7 @@
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="33"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="6" t="s">
         <v>278</v>
       </c>
@@ -7950,7 +8044,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="33">
+    <row r="30" spans="2:5" ht="34.799999999999997">
       <c r="B30" s="5" t="s">
         <v>281</v>
       </c>
@@ -7984,7 +8078,7 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="2:5" ht="181.5">
+    <row r="37" spans="2:5" ht="191.4">
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
         <v>290</v>
@@ -7996,7 +8090,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="66">
+    <row r="38" spans="2:5" ht="69.599999999999994">
       <c r="B38" s="15" t="s">
         <v>294</v>
       </c>
@@ -8004,14 +8098,14 @@
         <v>232</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="36" t="s">
         <v>297</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -8023,7 +8117,7 @@
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="33"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="6" t="s">
         <v>298</v>
       </c>
@@ -8033,7 +8127,7 @@
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="33"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="6" t="s">
         <v>299</v>
       </c>
@@ -8042,7 +8136,7 @@
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="2:5" ht="99">
+    <row r="42" spans="2:5" ht="104.4">
       <c r="B42" s="15" t="s">
         <v>303</v>
       </c>
@@ -8050,20 +8144,20 @@
         <v>304</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="2:5" ht="99">
+    <row r="43" spans="2:5" ht="104.4">
       <c r="B43" s="5" t="s">
         <v>305</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -8076,7 +8170,7 @@
       </c>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="2:5" ht="33">
+    <row r="45" spans="2:5" ht="34.799999999999997">
       <c r="B45" s="5" t="s">
         <v>308</v>
       </c>
@@ -8086,13 +8180,13 @@
       </c>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="2:5" ht="82.5">
+    <row r="46" spans="2:5" ht="69.599999999999994">
       <c r="B46" s="28" t="s">
         <v>310</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>311</v>
@@ -8108,30 +8202,30 @@
       </c>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="2:5" ht="33">
+    <row r="48" spans="2:5" ht="34.799999999999997">
       <c r="B48" s="5" t="s">
         <v>314</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="2:5" ht="82.5">
-      <c r="B49" s="40" t="s">
+    <row r="49" spans="2:5" ht="87">
+      <c r="B49" s="43" t="s">
         <v>315</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="33">
-      <c r="B50" s="40"/>
+    <row r="50" spans="2:5" ht="34.799999999999997">
+      <c r="B50" s="43"/>
       <c r="C50" s="6" t="s">
         <v>291</v>
       </c>
@@ -8140,18 +8234,18 @@
       </c>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="2:5" ht="49.5">
+    <row r="51" spans="2:5" ht="52.2">
       <c r="B51" s="5" t="s">
         <v>318</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>319</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -8160,7 +8254,7 @@
     <row r="53" spans="2:5">
       <c r="D53" s="24"/>
     </row>
-    <row r="54" spans="2:5" ht="82.5">
+    <row r="54" spans="2:5" ht="87">
       <c r="B54" s="5" t="s">
         <v>320</v>
       </c>
@@ -8169,23 +8263,23 @@
         <v>321</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="66">
-      <c r="B55" s="33" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="52.2">
+      <c r="B55" s="36" t="s">
         <v>323</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="33">
-      <c r="B56" s="33"/>
+    <row r="56" spans="2:5" ht="34.799999999999997">
+      <c r="B56" s="36"/>
       <c r="C56" s="6" t="s">
         <v>325</v>
       </c>
@@ -8194,20 +8288,20 @@
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="2:5" ht="198">
-      <c r="B57" s="33" t="s">
+    <row r="57" spans="2:5" ht="208.8">
+      <c r="B57" s="36" t="s">
         <v>322</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="13" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="165">
-      <c r="B58" s="33"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="174">
+      <c r="B58" s="36"/>
       <c r="C58" s="6" t="s">
         <v>327</v>
       </c>
@@ -8216,8 +8310,8 @@
       </c>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="2:5" ht="33">
-      <c r="B59" s="33"/>
+    <row r="59" spans="2:5" ht="34.799999999999997">
+      <c r="B59" s="36"/>
       <c r="C59" s="6" t="s">
         <v>329</v>
       </c>
@@ -8227,7 +8321,7 @@
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="33"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="6" t="s">
         <v>331</v>
       </c>
@@ -8236,8 +8330,8 @@
       </c>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="2:5" ht="82.5">
-      <c r="B61" s="33"/>
+    <row r="61" spans="2:5" ht="87">
+      <c r="B61" s="36"/>
       <c r="C61" s="6" t="s">
         <v>333</v>
       </c>
@@ -8246,8 +8340,8 @@
       </c>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="2:5" ht="82.5">
-      <c r="B62" s="33"/>
+    <row r="62" spans="2:5" ht="87">
+      <c r="B62" s="36"/>
       <c r="C62" s="6" t="s">
         <v>335</v>
       </c>
@@ -8258,8 +8352,8 @@
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="82.5">
-      <c r="B63" s="33"/>
+    <row r="63" spans="2:5" ht="87">
+      <c r="B63" s="36"/>
       <c r="C63" s="6" t="s">
         <v>338</v>
       </c>
@@ -8270,7 +8364,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="33">
+    <row r="64" spans="2:5" ht="34.799999999999997">
       <c r="B64" s="5" t="s">
         <v>341</v>
       </c>
@@ -8290,41 +8384,41 @@
       </c>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="2:10" ht="165">
+    <row r="66" spans="2:10" ht="174">
       <c r="B66" s="25" t="s">
         <v>345</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J66" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" ht="82.5">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="87">
       <c r="B67" s="29" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="20" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="2:10" ht="99">
+    <row r="68" spans="2:10" ht="104.4">
       <c r="B68" s="29" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="20" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="69" spans="2:10">
@@ -8337,16 +8431,16 @@
       </c>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="2:10" ht="115.5">
+    <row r="70" spans="2:10" ht="121.8">
       <c r="B70" s="5" t="s">
         <v>348</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -8375,7 +8469,7 @@
       </c>
       <c r="E74" s="19"/>
     </row>
-    <row r="75" spans="2:10" ht="148.5">
+    <row r="75" spans="2:10" ht="156.6">
       <c r="B75" s="5"/>
       <c r="C75" s="6" t="s">
         <v>352</v>
@@ -8384,10 +8478,10 @@
         <v>353</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" ht="33">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="34.799999999999997">
       <c r="B76" s="5"/>
       <c r="C76" s="6" t="s">
         <v>354</v>
@@ -8399,7 +8493,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="77" spans="2:10" ht="49.5">
+    <row r="77" spans="2:10" ht="52.2">
       <c r="B77" s="5"/>
       <c r="C77" s="7" t="s">
         <v>356</v>
@@ -8411,7 +8505,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="78" spans="2:10" ht="33">
+    <row r="78" spans="2:10" ht="34.799999999999997">
       <c r="B78" s="5"/>
       <c r="C78" s="7" t="s">
         <v>359</v>
@@ -8423,7 +8517,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="2:10" ht="49.5">
+    <row r="79" spans="2:10" ht="52.2">
       <c r="B79" s="5"/>
       <c r="C79" s="6" t="s">
         <v>361</v>
@@ -8435,7 +8529,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="80" spans="2:10" ht="99">
+    <row r="80" spans="2:10" ht="104.4">
       <c r="B80" s="5"/>
       <c r="C80" s="6" t="s">
         <v>365</v>
@@ -8479,7 +8573,7 @@
       </c>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="2:5" ht="99">
+    <row r="84" spans="2:5" ht="104.4">
       <c r="B84" s="5"/>
       <c r="C84" s="6" t="s">
         <v>375</v>
@@ -8515,16 +8609,16 @@
   </sheetPr>
   <dimension ref="B2:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
-    <col min="4" max="4" width="67.125" customWidth="1"/>
-    <col min="5" max="5" width="59.125" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" customWidth="1"/>
+    <col min="3" max="3" width="29.69921875" customWidth="1"/>
+    <col min="4" max="4" width="67.09765625" customWidth="1"/>
+    <col min="5" max="5" width="59.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -8552,22 +8646,22 @@
         <v>378</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="82.5">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="87">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>379</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="49.5">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="52.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
         <v>380</v>
@@ -8576,10 +8670,10 @@
         <v>382</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="115.5">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="121.8">
       <c r="B6" s="6"/>
       <c r="C6" s="8" t="s">
         <v>381</v>
@@ -8588,40 +8682,40 @@
         <v>416</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="198">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="208.8">
       <c r="B7" s="6"/>
       <c r="C7" s="30" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="82.5">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="87">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>383</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -8637,7 +8731,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="33">
+    <row r="11" spans="2:5" ht="34.799999999999997">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>386</v>
@@ -8647,31 +8741,31 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5" ht="66">
+    <row r="12" spans="2:5" ht="69.599999999999994">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>388</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="115.5">
+    <row r="13" spans="2:5" ht="121.8">
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
         <v>389</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="49.5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="52.2">
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
         <v>390</v>
@@ -8680,10 +8774,10 @@
         <v>391</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="33">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="34.799999999999997">
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
         <v>392</v>
@@ -8700,16 +8794,16 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="49.5">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="52.2">
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
         <v>395</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>396</v>
@@ -8735,7 +8829,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:5" ht="99">
+    <row r="20" spans="2:5" ht="104.4">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
         <v>401</v>
@@ -8744,7 +8838,7 @@
         <v>402</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -8767,7 +8861,7 @@
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5" ht="82.5">
+    <row r="23" spans="2:5" ht="87">
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
         <v>409</v>
@@ -8776,44 +8870,44 @@
         <v>410</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="33">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="34.799999999999997">
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
         <v>411</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="49.5">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="52.2">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="66">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="69.599999999999994">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="2:5" ht="33">
+    <row r="27" spans="2:5" ht="34.799999999999997">
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
         <v>413</v>
@@ -8825,25 +8919,25 @@
     </row>
     <row r="28" spans="2:5" ht="168" customHeight="1">
       <c r="C28" s="24" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="33">
-      <c r="B30" s="33" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="34.799999999999997">
+      <c r="B30" s="36" t="s">
         <v>407</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>417</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="33">
-      <c r="B31" s="33"/>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="34.799999999999997">
+      <c r="B31" s="36"/>
       <c r="C31" s="7" t="s">
         <v>418</v>
       </c>
@@ -8851,11 +8945,11 @@
         <v>419</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="49.5">
-      <c r="B32" s="33"/>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="52.2">
+      <c r="B32" s="36"/>
       <c r="C32" s="7" t="s">
         <v>420</v>
       </c>
@@ -8863,11 +8957,11 @@
         <v>421</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="33"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="7" t="s">
         <v>422</v>
       </c>
@@ -8876,8 +8970,8 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="2:5" ht="313.5">
-      <c r="B34" s="33"/>
+    <row r="34" spans="2:5" ht="330.6">
+      <c r="B34" s="36"/>
       <c r="C34" s="7" t="s">
         <v>424</v>
       </c>
@@ -8886,13 +8980,13 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="2:5" ht="49.5">
-      <c r="B35" s="33"/>
+    <row r="35" spans="2:5" ht="52.2">
+      <c r="B35" s="36"/>
       <c r="C35" s="7" t="s">
         <v>426</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>427</v>
@@ -8905,18 +8999,18 @@
       <c r="D38" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="44" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="33">
+    <row r="39" spans="2:5" ht="34.799999999999997">
       <c r="C39" t="s">
         <v>430</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E39" s="32"/>
+      <c r="E39" s="35"/>
     </row>
     <row r="40" spans="2:5">
       <c r="C40" t="s">
@@ -8925,7 +9019,7 @@
       <c r="D40" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E40" s="32"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="41" spans="2:5">
       <c r="C41" t="s">
@@ -8934,7 +9028,7 @@
       <c r="D41" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="E41" s="32"/>
+      <c r="E41" s="35"/>
     </row>
     <row r="42" spans="2:5">
       <c r="C42" t="s">
@@ -8943,31 +9037,31 @@
       <c r="D42" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E42" s="32"/>
+      <c r="E42" s="35"/>
     </row>
     <row r="43" spans="2:5">
       <c r="C43" t="s">
         <v>438</v>
       </c>
-      <c r="D43" s="42" t="s">
-        <v>540</v>
-      </c>
-      <c r="E43" s="32"/>
-    </row>
-    <row r="44" spans="2:5" ht="33">
+      <c r="D43" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="E43" s="35"/>
+    </row>
+    <row r="44" spans="2:5" ht="34.799999999999997">
       <c r="C44" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E44" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="115.5">
-      <c r="D45" s="42" t="s">
-        <v>570</v>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="121.8">
+      <c r="D45" s="32" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
